--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{2DABCA3C-6B19-0C4F-B36C-D75E03212AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C63E09D3-EA11-F545-9385-DC5D7CF00C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
